--- a/src/rte_trend_data.xlsx
+++ b/src/rte_trend_data.xlsx
@@ -1,113 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://prevalonenergy-my.sharepoint.com/personal/himanshu_prevalonenergy_com/Documents/I drive/Sizing Tool/System Analytics Tool/deploy_with_render/src/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_2B59D2BFD3D05700B3183F115928383264C9F43F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F412EC8D-F070-441A-9E0B-855F1B136B7B}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
-  <si>
-    <t>year_month</t>
-  </si>
-  <si>
-    <t>median_rte</t>
-  </si>
-  <si>
-    <t>count</t>
-  </si>
-  <si>
-    <t>tested_rte</t>
-  </si>
-  <si>
-    <t>contracted_rte</t>
-  </si>
-  <si>
-    <t>2024-03</t>
-  </si>
-  <si>
-    <t>2024-06</t>
-  </si>
-  <si>
-    <t>2024-07</t>
-  </si>
-  <si>
-    <t>2024-08</t>
-  </si>
-  <si>
-    <t>2024-09</t>
-  </si>
-  <si>
-    <t>2024-10</t>
-  </si>
-  <si>
-    <t>2024-11</t>
-  </si>
-  <si>
-    <t>2024-12</t>
-  </si>
-  <si>
-    <t>2025-01</t>
-  </si>
-  <si>
-    <t>2025-02</t>
-  </si>
-  <si>
-    <t>2025-03</t>
-  </si>
-  <si>
-    <t>2025-04</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -122,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -446,162 +420,221 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>year_month</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>median_rte</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>count</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>tested_rte</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>contracted_rte</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2024-03</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2024-06</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>0.875</v>
-      </c>
-      <c r="E2">
-        <v>0.84</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3">
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2024-07</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4">
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2024-08</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.8711986215409325</v>
+      </c>
+      <c r="C5" t="n">
+        <v>770</v>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.8537462800124118</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1093</v>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2024-10</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.8677143934327294</v>
+      </c>
+      <c r="C7" t="n">
+        <v>242</v>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2024-11</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5">
-        <v>0.87174108055147281</v>
-      </c>
-      <c r="C5">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6">
-        <v>0.85439729071862169</v>
-      </c>
-      <c r="C6">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7">
-        <v>0.86771439343272938</v>
-      </c>
-      <c r="C7">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8">
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2024-12</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9">
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2025-01</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10">
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2025-02</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11">
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2025-03</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>0.83199999999999996</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13">
-        <v>0.85125047316691349</v>
-      </c>
-      <c r="C13">
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="n">
+        <v>0.832</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2025-04</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.8512504731669135</v>
+      </c>
+      <c r="C13" t="n">
         <v>131</v>
       </c>
-      <c r="D13">
-        <v>0.86699999999999999</v>
-      </c>
-      <c r="E13">
-        <v>0.83199999999999996</v>
+      <c r="D13" t="n">
+        <v>0.867</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.832</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
-<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
-  <clbl:label id="{cb900d8d-e34c-495b-bcac-83a2298b7739}" enabled="1" method="Standard" siteId="{fda0a4a7-3813-444d-808d-54bb327d0367}" contentBits="0" removed="0"/>
-</clbl:labelList>
 </file>
--- a/src/rte_trend_data.xlsx
+++ b/src/rte_trend_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,7 +488,9 @@
         <v>0</v>
       </c>
       <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
+      <c r="E3" t="n">
+        <v>0.832</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -501,7 +503,9 @@
         <v>0</v>
       </c>
       <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
+      <c r="E4" t="n">
+        <v>0.832</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -516,7 +520,9 @@
         <v>770</v>
       </c>
       <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
+      <c r="E5" t="n">
+        <v>0.832</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -531,7 +537,9 @@
         <v>1093</v>
       </c>
       <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
+      <c r="E6" t="n">
+        <v>0.832</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -546,7 +554,9 @@
         <v>242</v>
       </c>
       <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
+      <c r="E7" t="n">
+        <v>0.832</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -559,7 +569,9 @@
         <v>0</v>
       </c>
       <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
+      <c r="E8" t="n">
+        <v>0.832</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -572,7 +584,9 @@
         <v>0</v>
       </c>
       <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
+      <c r="E9" t="n">
+        <v>0.832</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -585,7 +599,9 @@
         <v>0</v>
       </c>
       <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
+      <c r="E10" t="n">
+        <v>0.832</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -598,7 +614,9 @@
         <v>0</v>
       </c>
       <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
+      <c r="E11" t="n">
+        <v>0.832</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -631,6 +649,40 @@
         <v>0.867</v>
       </c>
       <c r="E13" t="n">
+        <v>0.832</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2025-05</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.8023110536204735</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1007</v>
+      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="n">
+        <v>0.832</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2025-06</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.8902329256087044</v>
+      </c>
+      <c r="C15" t="n">
+        <v>97</v>
+      </c>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="n">
         <v>0.832</v>
       </c>
     </row>

--- a/src/rte_trend_data.xlsx
+++ b/src/rte_trend_data.xlsx
@@ -514,10 +514,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8711986215409325</v>
+        <v>0.8715745681574938</v>
       </c>
       <c r="C5" t="n">
-        <v>770</v>
+        <v>750</v>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="n">
@@ -531,10 +531,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.8537462800124118</v>
+        <v>0.8543972907186217</v>
       </c>
       <c r="C6" t="n">
-        <v>1093</v>
+        <v>714</v>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="n">
@@ -659,10 +659,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.8023110536204735</v>
+        <v>0.8257090899136454</v>
       </c>
       <c r="C14" t="n">
-        <v>1007</v>
+        <v>672</v>
       </c>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="n">
